--- a/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC170.xlsx
+++ b/fuentes/contenidos/grado09/guion02/SolicitudGrafica_CN_09_02_CO_REC170.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda\Desktop\2015\PLANETA\REC_CN_09_02_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
@@ -16,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="209">
   <si>
     <t>Fecha:</t>
   </si>
@@ -646,6 +651,9 @@
   </si>
   <si>
     <t>Eliminar el título que aparece en la imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secuencias de ADN </t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1799,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1963,7 +1971,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1971,6 +1979,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2004,7 +2026,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2012,6 +2034,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2045,7 +2081,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2053,6 +2089,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2086,7 +2136,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2094,6 +2144,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2127,7 +2191,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2135,6 +2199,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2168,7 +2246,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2176,6 +2254,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2209,7 +2301,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2217,6 +2309,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2552,9 +2658,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3167,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
@@ -3147,7 +3253,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
@@ -3190,7 +3296,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
@@ -3276,7 +3382,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
@@ -3367,22 +3473,28 @@
     <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B22" s="62"/>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="62">
+        <v>124450252</v>
+      </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+        <v>Recurso F4</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>163</v>
+      </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>CN_09_02_CO_REC170_IMG13.jpg</v>
       </c>
       <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>330 x 475 px</v>
       </c>
       <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3392,7 +3504,9 @@
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="63" t="s">
+        <v>208</v>
+      </c>
       <c r="K22" s="69"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
